--- a/result/compare/hybride-distance/result-large.xlsx
+++ b/result/compare/hybride-distance/result-large.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\hybride-distance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride-distance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07F100-5548-453A-BBFC-C2AEF2663DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D15E64-469E-8340-8D1D-FF100758C83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7485" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -3429,8 +3431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8184443" y="2880873"/>
-          <a:ext cx="7381875" cy="4458670"/>
+          <a:off x="8832368" y="3044877"/>
+          <a:ext cx="7969475" cy="4737302"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3574,8 +3576,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9337814" y="3315466"/>
-              <a:ext cx="4295658" cy="2048939"/>
+              <a:off x="9574082" y="3789152"/>
+              <a:ext cx="3066294" cy="1462558"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3992,16 +3994,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.81640625" style="2"/>
+    <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -4087,7 +4089,7 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>0.69918699186991873</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>0.75609756097560976</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4222,7 +4224,7 @@
         <v>0.78861788617886175</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>16</v>
       </c>

--- a/result/compare/hybride-distance/result-large.xlsx
+++ b/result/compare/hybride-distance/result-large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride-distance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D15E64-469E-8340-8D1D-FF100758C83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C98E4-2C33-2C4E-9F79-83DD464E588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
@@ -79,13 +79,13 @@
     <t>Hybride</t>
   </si>
   <si>
-    <t>Depthmap only</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Yolov5m</t>
+    <t>Yolov5m driven</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Depth map only</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Yolov5m</c:v>
+                  <c:v>Yolov5m driven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -462,18 +462,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -519,7 +515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Depthmap only</c:v>
+                  <c:v>Depth map only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -533,14 +529,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -600,7 +596,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -667,7 +663,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -730,6 +726,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -794,8 +804,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -909,8 +919,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1105,7 +1121,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Yolov5m</c:v>
+                  <c:v>Yolov5m driven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1119,18 +1135,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1176,7 +1188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Depthmap only</c:v>
+                  <c:v>Depth map only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1190,14 +1202,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1257,7 +1269,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1324,7 +1336,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2336,7 +2348,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2363,8 +2375,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2444,11 +2456,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2459,11 +2466,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2475,7 +2477,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2495,9 +2497,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2510,10 +2509,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2553,22 +2552,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2673,8 +2673,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2806,19 +2806,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2832,6 +2833,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3408,15 +3420,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>627943</xdr:colOff>
+      <xdr:colOff>620472</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>178948</xdr:rowOff>
+      <xdr:rowOff>159089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>392993</xdr:colOff>
+      <xdr:colOff>385522</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:rowOff>102348</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3431,8 +3443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8832368" y="3044877"/>
-          <a:ext cx="7969475" cy="4737302"/>
+          <a:off x="8903081" y="3058002"/>
+          <a:ext cx="8047658" cy="4774781"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3486,17 +3498,19 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeAspect="1"/>
+            </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9530831" y="3758299"/>
-              <a:ext cx="7229306" cy="3437397"/>
+              <a:off x="9612370" y="3758299"/>
+              <a:ext cx="7147768" cy="3398626"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3533,13 +3547,13 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9596663" y="3762350"/>
-              <a:ext cx="3644382" cy="1739121"/>
+              <a:off x="9625405" y="3770990"/>
+              <a:ext cx="3602727" cy="1719242"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3576,13 +3590,13 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9574082" y="3789152"/>
-              <a:ext cx="3066294" cy="1462558"/>
+              <a:off x="9595307" y="3770990"/>
+              <a:ext cx="3080200" cy="1469191"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3992,10 +4006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
-  <dimension ref="B2:N10"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4003,7 +4017,7 @@
     <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4040,11 +4054,8 @@
       <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -4089,9 +4100,9 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>49</v>
@@ -4134,7 +4145,7 @@
         <v>0.69918699186991873</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4179,7 +4190,7 @@
         <v>0.75609756097560976</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4224,9 +4235,9 @@
         <v>0.78861788617886175</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/result/compare/hybride-distance/result-large.xlsx
+++ b/result/compare/hybride-distance/result-large.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride-distance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C98E4-2C33-2C4E-9F79-83DD464E588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6758D950-30DE-314D-883F-C16653B17F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
@@ -399,7 +399,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Roc Space</a:t>
+              <a:t>ROC Space</a:t>
             </a:r>
           </a:p>
         </c:rich>
